--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H2">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.9710851728195</v>
+        <v>34.071057</v>
       </c>
       <c r="N2">
-        <v>33.9710851728195</v>
+        <v>102.213171</v>
       </c>
       <c r="O2">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="P2">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="Q2">
-        <v>1698.866578372301</v>
+        <v>1757.77954932987</v>
       </c>
       <c r="R2">
-        <v>1698.866578372301</v>
+        <v>15820.01594396883</v>
       </c>
       <c r="S2">
-        <v>0.1590017506837994</v>
+        <v>0.1462608898564825</v>
       </c>
       <c r="T2">
-        <v>0.1590017506837994</v>
+        <v>0.1462608898564826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H3">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.2667954280594</v>
+        <v>19.28977566666667</v>
       </c>
       <c r="N3">
-        <v>19.2667954280594</v>
+        <v>57.869327</v>
       </c>
       <c r="O3">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556734</v>
       </c>
       <c r="P3">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556735</v>
       </c>
       <c r="Q3">
-        <v>963.5169044071406</v>
+        <v>995.1899401896344</v>
       </c>
       <c r="R3">
-        <v>963.5169044071406</v>
+        <v>8956.709461706709</v>
       </c>
       <c r="S3">
-        <v>0.09017828507813339</v>
+        <v>0.0828075205925836</v>
       </c>
       <c r="T3">
-        <v>0.09017828507813339</v>
+        <v>0.08280752059258364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H4">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.86496666671917</v>
+        <v>6.368545333333333</v>
       </c>
       <c r="N4">
-        <v>5.86496666671917</v>
+        <v>19.105636</v>
       </c>
       <c r="O4">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="P4">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="Q4">
-        <v>293.3022540395294</v>
+        <v>328.5632948198088</v>
       </c>
       <c r="R4">
-        <v>293.3022540395294</v>
+        <v>2957.069653378279</v>
       </c>
       <c r="S4">
-        <v>0.02745099142304136</v>
+        <v>0.02733901409471043</v>
       </c>
       <c r="T4">
-        <v>0.02745099142304136</v>
+        <v>0.02733901409471043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H5">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I5">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J5">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.966631090211532</v>
+        <v>1.7978</v>
       </c>
       <c r="N5">
-        <v>0.966631090211532</v>
+        <v>5.3934</v>
       </c>
       <c r="O5">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="P5">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="Q5">
-        <v>48.34044142016015</v>
+        <v>92.75133653133332</v>
       </c>
       <c r="R5">
-        <v>48.34044142016015</v>
+        <v>834.7620287819998</v>
       </c>
       <c r="S5">
-        <v>0.004524319279973914</v>
+        <v>0.007717630473982191</v>
       </c>
       <c r="T5">
-        <v>0.004524319279973914</v>
+        <v>0.007717630473982194</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.9710851728195</v>
+        <v>34.071057</v>
       </c>
       <c r="N6">
-        <v>33.9710851728195</v>
+        <v>102.213171</v>
       </c>
       <c r="O6">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="P6">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="Q6">
-        <v>654.0612358806201</v>
+        <v>658.2921165257402</v>
       </c>
       <c r="R6">
-        <v>654.0612358806201</v>
+        <v>5924.629048731661</v>
       </c>
       <c r="S6">
-        <v>0.06121544969062162</v>
+        <v>0.05477500906485596</v>
       </c>
       <c r="T6">
-        <v>0.06121544969062162</v>
+        <v>0.05477500906485597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.2667954280594</v>
+        <v>19.28977566666667</v>
       </c>
       <c r="N7">
-        <v>19.2667954280594</v>
+        <v>57.869327</v>
       </c>
       <c r="O7">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556734</v>
       </c>
       <c r="P7">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556735</v>
       </c>
       <c r="Q7">
-        <v>370.9526488490951</v>
+        <v>372.700713421269</v>
       </c>
       <c r="R7">
-        <v>370.9526488490951</v>
+        <v>3354.306420791421</v>
       </c>
       <c r="S7">
-        <v>0.03471851252987159</v>
+        <v>0.03101158960230393</v>
       </c>
       <c r="T7">
-        <v>0.03471851252987159</v>
+        <v>0.03101158960230394</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J8">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.86496666671917</v>
+        <v>6.368545333333333</v>
       </c>
       <c r="N8">
-        <v>5.86496666671917</v>
+        <v>19.105636</v>
       </c>
       <c r="O8">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="P8">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="Q8">
-        <v>112.9209540089178</v>
+        <v>123.0476408956178</v>
       </c>
       <c r="R8">
-        <v>112.9209540089178</v>
+        <v>1107.42876806056</v>
       </c>
       <c r="S8">
-        <v>0.01056859296949924</v>
+        <v>0.01023851794099841</v>
       </c>
       <c r="T8">
-        <v>0.01056859296949924</v>
+        <v>0.01023851794099841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J9">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.966631090211532</v>
+        <v>1.7978</v>
       </c>
       <c r="N9">
-        <v>0.966631090211532</v>
+        <v>5.3934</v>
       </c>
       <c r="O9">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="P9">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="Q9">
-        <v>18.61100174716356</v>
+        <v>34.73556946266667</v>
       </c>
       <c r="R9">
-        <v>18.61100174716356</v>
+        <v>312.6201251640001</v>
       </c>
       <c r="S9">
-        <v>0.00174185653979577</v>
+        <v>0.002890268749126217</v>
       </c>
       <c r="T9">
-        <v>0.00174185653979577</v>
+        <v>0.002890268749126218</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H10">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I10">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J10">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9710851728195</v>
+        <v>34.071057</v>
       </c>
       <c r="N10">
-        <v>33.9710851728195</v>
+        <v>102.213171</v>
       </c>
       <c r="O10">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="P10">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="Q10">
-        <v>3325.904747791879</v>
+        <v>3828.648739744638</v>
       </c>
       <c r="R10">
-        <v>3325.904747791879</v>
+        <v>34457.83865770174</v>
       </c>
       <c r="S10">
-        <v>0.3112808764612585</v>
+        <v>0.3185732658207547</v>
       </c>
       <c r="T10">
-        <v>0.3112808764612585</v>
+        <v>0.3185732658207548</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H11">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I11">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J11">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.2667954280594</v>
+        <v>19.28977566666667</v>
       </c>
       <c r="N11">
-        <v>19.2667954280594</v>
+        <v>57.869327</v>
       </c>
       <c r="O11">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556734</v>
       </c>
       <c r="P11">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556735</v>
       </c>
       <c r="Q11">
-        <v>1886.296126924674</v>
+        <v>2167.639685969828</v>
       </c>
       <c r="R11">
-        <v>1886.296126924674</v>
+        <v>19508.75717372845</v>
       </c>
       <c r="S11">
-        <v>0.1765438147452719</v>
+        <v>0.180364431637085</v>
       </c>
       <c r="T11">
-        <v>0.1765438147452719</v>
+        <v>0.1803644316370851</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H12">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I12">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J12">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.86496666671917</v>
+        <v>6.368545333333333</v>
       </c>
       <c r="N12">
-        <v>5.86496666671917</v>
+        <v>19.105636</v>
       </c>
       <c r="O12">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="P12">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="Q12">
-        <v>574.2036318018343</v>
+        <v>715.6491524308523</v>
       </c>
       <c r="R12">
-        <v>574.2036318018343</v>
+        <v>6440.84237187767</v>
       </c>
       <c r="S12">
-        <v>0.05374134959613025</v>
+        <v>0.05954755924852953</v>
       </c>
       <c r="T12">
-        <v>0.05374134959613025</v>
+        <v>0.05954755924852955</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H13">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I13">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J13">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.966631090211532</v>
+        <v>1.7978</v>
       </c>
       <c r="N13">
-        <v>0.966631090211532</v>
+        <v>5.3934</v>
       </c>
       <c r="O13">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="P13">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="Q13">
-        <v>94.63703958653805</v>
+        <v>202.0232217718666</v>
       </c>
       <c r="R13">
-        <v>94.63703958653805</v>
+        <v>1818.2089959468</v>
       </c>
       <c r="S13">
-        <v>0.008857349461903407</v>
+        <v>0.01680989871528062</v>
       </c>
       <c r="T13">
-        <v>0.008857349461903407</v>
+        <v>0.01680989871528063</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H14">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I14">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J14">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.9710851728195</v>
+        <v>34.071057</v>
       </c>
       <c r="N14">
-        <v>33.9710851728195</v>
+        <v>102.213171</v>
       </c>
       <c r="O14">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="P14">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="Q14">
-        <v>363.6154999702691</v>
+        <v>410.3829855251551</v>
       </c>
       <c r="R14">
-        <v>363.6154999702691</v>
+        <v>3693.446869726396</v>
       </c>
       <c r="S14">
-        <v>0.03403180791656479</v>
+        <v>0.03414704686247609</v>
       </c>
       <c r="T14">
-        <v>0.03403180791656479</v>
+        <v>0.0341470468624761</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H15">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I15">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J15">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.2667954280594</v>
+        <v>19.28977566666667</v>
       </c>
       <c r="N15">
-        <v>19.2667954280594</v>
+        <v>57.869327</v>
       </c>
       <c r="O15">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556734</v>
       </c>
       <c r="P15">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556735</v>
       </c>
       <c r="Q15">
-        <v>206.2255420090032</v>
+        <v>232.3437082740684</v>
       </c>
       <c r="R15">
-        <v>206.2255420090032</v>
+        <v>2091.093374466615</v>
       </c>
       <c r="S15">
-        <v>0.01930123450104218</v>
+        <v>0.01933279832370089</v>
       </c>
       <c r="T15">
-        <v>0.01930123450104218</v>
+        <v>0.0193327983237009</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H16">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I16">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J16">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.86496666671917</v>
+        <v>6.368545333333333</v>
       </c>
       <c r="N16">
-        <v>5.86496666671917</v>
+        <v>19.105636</v>
       </c>
       <c r="O16">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="P16">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="Q16">
-        <v>62.77670483527432</v>
+        <v>76.70858721364667</v>
       </c>
       <c r="R16">
-        <v>62.77670483527432</v>
+        <v>690.37728492282</v>
       </c>
       <c r="S16">
-        <v>0.00587545019605496</v>
+        <v>0.006382749321312125</v>
       </c>
       <c r="T16">
-        <v>0.00587545019605496</v>
+        <v>0.006382749321312126</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H17">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I17">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J17">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.966631090211532</v>
+        <v>1.7978</v>
       </c>
       <c r="N17">
-        <v>0.966631090211532</v>
+        <v>5.3934</v>
       </c>
       <c r="O17">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="P17">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="Q17">
-        <v>10.34650631164693</v>
+        <v>21.654348187</v>
       </c>
       <c r="R17">
-        <v>10.34650631164693</v>
+        <v>194.889133683</v>
       </c>
       <c r="S17">
-        <v>0.0009683589270377193</v>
+        <v>0.001801809695817758</v>
       </c>
       <c r="T17">
-        <v>0.0009683589270377193</v>
+        <v>0.001801809695817759</v>
       </c>
     </row>
   </sheetData>
